--- a/massSheet.xlsx
+++ b/massSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>LiPo Battery</t>
+  </si>
+  <si>
+    <t>https://www.batteryheatedclothing.com/pages/a2212-13t-technical-data.html</t>
   </si>
 </sst>
 </file>
@@ -414,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D026515-85FF-4E8D-BF3B-F5B01C0D6378}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -444,29 +447,32 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E10" si="0">C3*D3</f>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -481,7 +487,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -496,7 +502,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -511,7 +517,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -526,7 +532,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -541,7 +547,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -556,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -571,10 +577,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>SUM(E2:E10)</f>
-        <v>567.87999999999988</v>
+        <v>345.88</v>
       </c>
     </row>
   </sheetData>
